--- a/medicine/Psychotrope/Jacky_Rigaux/Jacky_Rigaux.xlsx
+++ b/medicine/Psychotrope/Jacky_Rigaux/Jacky_Rigaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacky Rigaux, né le 28 avril 1948 à Donzy, est un auteur français, notamment spécialiste des terroirs viticoles et de la dégustation du vin. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacky Rigaux obtient en 1987 un doctorat de psychologie à l'université Paris-7[1],[2]. En 1976, il devient ingénieur de recherche au service de formation continue de l'université de Dijon, dans deux parcours intitulés « Vigne, vin, terroirs » et « médico-psycho-social »[3],[4],[1].
-Rigaux organise des dégustations thématiques avec des producteurs de vins de Bourgogne[5] et, chaque année, les Rencontres internationales Henri Jayer, vignerons, gourmets et terroirs du monde, au château de Gilly-lès-Cîteaux[6]. Ces rencontres ont donné lieu à un livre Le Terroir et le Vigneron en 2006. Il publie également des articles dans la revue Le Rouge et le Blanc et Vinifera. Il est un promoteur de la dégustation géo-sensorielle qui conjugue dégustation et connaissance du terroir[7],[5],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacky Rigaux obtient en 1987 un doctorat de psychologie à l'université Paris-7,. En 1976, il devient ingénieur de recherche au service de formation continue de l'université de Dijon, dans deux parcours intitulés « Vigne, vin, terroirs » et « médico-psycho-social ».
+Rigaux organise des dégustations thématiques avec des producteurs de vins de Bourgogne et, chaque année, les Rencontres internationales Henri Jayer, vignerons, gourmets et terroirs du monde, au château de Gilly-lès-Cîteaux. Ces rencontres ont donné lieu à un livre Le Terroir et le Vigneron en 2006. Il publie également des articles dans la revue Le Rouge et le Blanc et Vinifera. Il est un promoteur de la dégustation géo-sensorielle qui conjugue dégustation et connaissance du terroir.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychologie clinique et expérimentale, Edilig, 1982.
 Socialisation de l'enfant - approches psychanalytiques, Chaumont, 1992.
